--- a/Web Application - Back End/pandas_multiple1.xlsx
+++ b/Web Application - Back End/pandas_multiple1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>sdn</t>
   </si>
@@ -31,6 +31,12 @@
     <t>('321_Isaiah Baldwin', 'sdn1')</t>
   </si>
   <si>
+    <t>('305_Zachary Miller', 'sdn2')</t>
+  </si>
+  <si>
+    <t>('333_Sarah Anderson', 'sdn3')</t>
+  </si>
+  <si>
     <t>('325_Bethany Key', 'sde1')</t>
   </si>
   <si>
@@ -47,6 +53,12 @@
   </si>
   <si>
     <t>('480_Sarah Ochoa', 'sde1')</t>
+  </si>
+  <si>
+    <t>('331_John Ho', 'sde2')</t>
+  </si>
+  <si>
+    <t>('339_Darin Hansen', 'nfit1')</t>
   </si>
 </sst>
 </file>
@@ -432,23 +444,32 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -456,7 +477,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -464,7 +485,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -472,12 +493,15 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
